--- a/biology/Botanique/Rhinanthus_angustifolius/Rhinanthus_angustifolius.xlsx
+++ b/biology/Botanique/Rhinanthus_angustifolius/Rhinanthus_angustifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhinanthus angustifolius, qui a pour nom commun Rhinanthe à feuilles étroites ou Rhinanthe à grandes fleurs[2], est une espèce eurasiatique de plante de la famille des Orobanchaceae et du genre Rhinanthus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhinanthus angustifolius, qui a pour nom commun Rhinanthe à feuilles étroites ou Rhinanthe à grandes fleurs, est une espèce eurasiatique de plante de la famille des Orobanchaceae et du genre Rhinanthus.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhinanthus angustifolius est une plante herbacée annuelle qui atteint une hauteur de 20 à 60 centimètres. La tige est ramifiée, striée de noir et presque glabre.
 Les dents inférieures des bractées sont pointues ou ont de courtes arêtes, les dents mesurent de 4 à 8 mm de long, les arêtes de 1 à 5 mm.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhinanthus angustifolius est présent, sauf dans les régions nordiques et méditerranéennes, dans toute l'Europe, de la France à l'ouest à la Russie européenne à l'est. De plus, son aire continue à travers le nord de l'Asie Mineure, le Caucase et la Sibérie occidentale jusqu'en Asie centrale. 
 Le rhinanthe à grandes fleurs est présent dans les prairies, les prairies semi-arides, les forêts et les lisières des buissons. Il prospère mieux sur une alternance de sols limoneux humides, modérément frais, riches en alcalins et pauvres en nutriments. Cette espèce est encouragée par un fauchage ou un pâturage intensif. Elle se trouve à des altitudes allant jusqu'à 1 300 mètres, mais elle est plus rare dans les Alpes.
@@ -578,9 +594,11 @@
           <t>Parasitisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasites Eupithecia plumbeolata (de), Thrips montanus, Hyperomyzus rhinanthi (sv), Rhopalomyia cristaegalli (sv). La feuille a pour parasites Brachycoleus decolor, Charagochilus gyllenhalii (de), Opisthotaenia fulvipes, Polymerus cognatus (sv), Coleosporium tussilaginis, Arctia caja, Melitaea didyma, Philaenus spumarius, Peronospora pocutica, Podosphaera phtheirospermi, Plasmopara densa, Brachycaudus persicae (it). La tige a pour parasites Phytomyza rostrata (sv), Ditylenchus dipsaci[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasites Eupithecia plumbeolata (de), Thrips montanus, Hyperomyzus rhinanthi (sv), Rhopalomyia cristaegalli (sv). La feuille a pour parasites Brachycoleus decolor, Charagochilus gyllenhalii (de), Opisthotaenia fulvipes, Polymerus cognatus (sv), Coleosporium tussilaginis, Arctia caja, Melitaea didyma, Philaenus spumarius, Peronospora pocutica, Podosphaera phtheirospermi, Plasmopara densa, Brachycaudus persicae (it). La tige a pour parasites Phytomyza rostrata (sv), Ditylenchus dipsaci.
 </t>
         </is>
       </c>
